--- a/GLI_program/plot_working_folder/Tables_Excel_Scratch_Book.xlsx
+++ b/GLI_program/plot_working_folder/Tables_Excel_Scratch_Book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Desktop\Project\college_hockey\GLI_program\plot_working_folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2193E0CE-7CF7-4AD6-A241-C739EB972F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1987E4-1AC6-4D67-805D-1A4C2C7EFAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-1020" windowWidth="25440" windowHeight="15990" activeTab="1" xr2:uid="{F9862DA5-5AF3-4862-813A-07A8CFA6BCE2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="98">
   <si>
     <t>School Name</t>
   </si>
@@ -316,9 +316,6 @@
     <t>Hockey Program</t>
   </si>
   <si>
-    <t>Program Founded:</t>
-  </si>
-  <si>
     <t>Assistants:</t>
   </si>
   <si>
@@ -329,13 +326,46 @@
   </si>
   <si>
     <t>NCAA Appearances:</t>
+  </si>
+  <si>
+    <t>School Founded:</t>
+  </si>
+  <si>
+    <t>East Lansing, Michigan</t>
+  </si>
+  <si>
+    <t>Location:</t>
+  </si>
+  <si>
+    <t>Hockey Program Founded:</t>
+  </si>
+  <si>
+    <t>Jared DeMichiel, Mike Towns,
+ Brad Fast</t>
+  </si>
+  <si>
+    <t>7th Year (127-96-22)</t>
+  </si>
+  <si>
+    <t>Tyler Shelast, Jordy Murray,
+ Alec Broetzman</t>
+  </si>
+  <si>
+    <t>5th Year (73-70-13)</t>
+  </si>
+  <si>
+    <t>Chris Brown, Lenny Hofmann, 
+PD Melgoza</t>
+  </si>
+  <si>
+    <t>32nd Year (492-592-113)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,13 +458,6 @@
       <name val="Roboto Slab"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="0"/>
@@ -447,8 +470,34 @@
       <color theme="0"/>
       <name val="Exo 2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFCD00"/>
+      <name val="Exo 2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FFFFCD00"/>
+      <name val="Exo 2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFCC917"/>
+      <name val="Exo 2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FFFCC917"/>
+      <name val="Exo 2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,6 +537,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFAF9F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF236192"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBA0C2F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,17 +676,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -634,12 +684,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -651,22 +710,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -710,61 +757,113 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -774,6 +873,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFCC917"/>
+      <color rgb="FFBA0C2F"/>
+      <color rgb="FFFFCD00"/>
+      <color rgb="FF236192"/>
       <color rgb="FFFAF9F6"/>
       <color rgb="FF18453B"/>
     </mruColors>
@@ -793,23 +896,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1597819</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27CE15D0-2B68-1EDE-0C8F-D89D086EB181}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{045EF860-24B7-9D83-5C31-EDA0E3A7C93E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -818,7 +921,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -831,8 +934,158 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8248650" y="2952750"/>
-          <a:ext cx="1550194" cy="2066925"/>
+          <a:off x="8086725" y="3790950"/>
+          <a:ext cx="2343150" cy="2343150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>285749</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9877F771-92D2-7208-1013-C0C22B842802}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7810499" y="8963024"/>
+          <a:ext cx="2924175" cy="2924175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>353215</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876299</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D180893E-F727-A856-1EAE-3A4D162AC668}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8001790" y="15125700"/>
+          <a:ext cx="2532859" cy="2524125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>915041</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>166115</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85F5C3C8-C050-87FD-3E28-235F41B4AD63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7953375" y="20878800"/>
+          <a:ext cx="2620016" cy="2528315"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1144,30 +1397,30 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" activeCellId="3" sqref="A14:XFD18 A4:XFD4 A12:XFD12 A7:XFD7"/>
+      <selection activeCell="A11" sqref="A11:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="13" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="27" style="11" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="17"/>
+    <col min="2" max="2" width="21.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="27" style="7" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1175,16 +1428,16 @@
       <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1192,10 +1445,10 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="9" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1203,16 +1456,16 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="9">
         <v>1917</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="7">
         <v>1884</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="9">
         <v>1855</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="9">
         <v>1885</v>
       </c>
     </row>
@@ -1220,16 +1473,16 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1237,16 +1490,16 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="9" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1254,16 +1507,16 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="9">
         <v>5844</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="8">
         <v>10361</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="9">
         <v>49809</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="10">
         <v>7034</v>
       </c>
     </row>
@@ -1276,7 +1529,7 @@
       <c r="K9" t="s">
         <v>68</v>
       </c>
-      <c r="N9" s="17" t="s">
+      <c r="N9" s="13" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1284,7 +1537,7 @@
       <c r="L10" t="s">
         <v>70</v>
       </c>
-      <c r="N10" s="17" t="s">
+      <c r="N10" s="13" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1300,19 +1553,19 @@
       <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="9">
         <v>1925</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="7">
         <v>1975</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="9">
         <v>1919</v>
       </c>
-      <c r="N12" s="17" t="s">
+      <c r="N12" s="13" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1325,16 +1578,16 @@
       <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="9">
         <v>0</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="7">
         <v>1</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="9">
         <v>9</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="9">
         <v>10</v>
       </c>
     </row>
@@ -1342,16 +1595,16 @@
       <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="9">
         <v>0</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="7">
         <v>0</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="9">
         <v>3</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="9">
         <v>3</v>
       </c>
     </row>
@@ -1359,16 +1612,16 @@
       <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="9">
         <v>1</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="7">
         <v>4</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="9">
         <v>23</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="9">
         <v>15</v>
       </c>
     </row>
@@ -1376,16 +1629,16 @@
       <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="9">
         <v>1</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="7">
         <v>3</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="9">
         <v>8</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="9">
         <v>7</v>
       </c>
     </row>
@@ -1393,16 +1646,16 @@
       <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="9">
         <v>0</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="7">
         <v>1</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="9">
         <v>11</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="9">
         <v>11</v>
       </c>
     </row>
@@ -1410,16 +1663,16 @@
       <c r="A21" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="11" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1427,16 +1680,16 @@
       <c r="A22" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="9">
         <v>5</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="7">
         <v>32</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="9">
         <v>2</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="9">
         <v>7</v>
       </c>
     </row>
@@ -1444,16 +1697,16 @@
       <c r="A23" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="12" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1461,16 +1714,16 @@
       <c r="A24" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="12" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1478,16 +1731,16 @@
       <c r="A25" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="9" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1495,16 +1748,16 @@
       <c r="A26" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="9" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1518,234 +1771,842 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD01868-D268-4C30-A059-AE6DA7AD7AF3}">
-  <dimension ref="A2:L21"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:F21"/>
+    <sheetView tabSelected="1" topLeftCell="B59" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65:F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="16" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" style="27" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A2" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="15">
         <v>1855</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="15">
         <v>49809</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="23" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A4" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A7" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="B8" s="22" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="B8" s="18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="36.75" x14ac:dyDescent="0.5">
-      <c r="A9" s="25" t="s">
+    <row r="9" spans="1:6" ht="36.75" x14ac:dyDescent="0.5">
+      <c r="A9" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="19" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A10" s="18" t="s">
+      <c r="F9" s="32"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A10" s="21"/>
+      <c r="B10" s="19"/>
+      <c r="F10" s="32"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A11" s="21"/>
+      <c r="B11" s="19"/>
+      <c r="D11" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="40"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A12" s="21"/>
+      <c r="B12" s="19"/>
+      <c r="D12" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="34">
+        <v>49809</v>
+      </c>
+      <c r="F12" s="41"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A13" s="21"/>
+      <c r="B13" s="19"/>
+      <c r="D13" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="33">
+        <v>1855</v>
+      </c>
+      <c r="F13" s="41"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A14" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B14" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D14" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="33">
+        <v>1921</v>
+      </c>
+      <c r="F14" s="27"/>
+    </row>
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="27"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="C16" s="10"/>
+      <c r="D16" s="24"/>
+      <c r="F16" s="27"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="B17" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="36">
+        <v>23</v>
+      </c>
+      <c r="F17" s="27"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="C18" s="9"/>
+      <c r="D18" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="36">
+        <v>9</v>
+      </c>
+      <c r="F18" s="27"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="B19" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="15">
+        <v>3</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="36">
+        <v>3</v>
+      </c>
+      <c r="F19" s="27"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="15">
+        <v>23</v>
+      </c>
+      <c r="C20" s="15">
+        <v>8</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="36">
+        <v>8</v>
+      </c>
+      <c r="F20" s="27"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A21" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="15">
+        <v>9</v>
+      </c>
+      <c r="C21" s="15">
+        <v>11</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="36">
+        <v>11</v>
+      </c>
+      <c r="F21" s="27"/>
+    </row>
+    <row r="22" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="27"/>
+    </row>
+    <row r="23" spans="1:10" ht="26.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="C23" s="9"/>
+      <c r="D23" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="42"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="C24" s="9"/>
+      <c r="D24" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="46"/>
+    </row>
+    <row r="25" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D25" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="40">
-        <v>1921</v>
-      </c>
-      <c r="F10" s="44"/>
-    </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="18" t="s">
+      <c r="E25" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="44"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="D29" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="40"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="D30" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="34">
+        <v>7034</v>
+      </c>
+      <c r="F30" s="41"/>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="D31" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="33">
+        <v>1885</v>
+      </c>
+      <c r="F31" s="41"/>
+      <c r="J31" s="9"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="D32" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="33">
+        <v>1919</v>
+      </c>
+      <c r="F32" s="27"/>
+      <c r="J32" s="9"/>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.5">
+      <c r="D33" s="48"/>
+      <c r="F33" s="27"/>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.5">
+      <c r="D34" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="36">
+        <v>15</v>
+      </c>
+      <c r="F34" s="27"/>
+      <c r="J34" s="9"/>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.5">
+      <c r="D35" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="36">
+        <v>10</v>
+      </c>
+      <c r="F35" s="27"/>
+      <c r="J35" s="9"/>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.5">
+      <c r="D36" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="36">
+        <v>3</v>
+      </c>
+      <c r="F36" s="27"/>
+      <c r="J36" s="9"/>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.5">
+      <c r="D37" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="36">
+        <v>7</v>
+      </c>
+      <c r="F37" s="27"/>
+      <c r="J37" s="9"/>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.5">
+      <c r="D38" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="36">
+        <v>11</v>
+      </c>
+      <c r="F38" s="27"/>
+      <c r="J38" s="9"/>
+    </row>
+    <row r="39" spans="4:10" x14ac:dyDescent="0.5">
+      <c r="D39" s="49"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="27"/>
+      <c r="J39" s="9"/>
+    </row>
+    <row r="40" spans="4:10" ht="26.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="D40" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" s="42"/>
+      <c r="J40" s="11"/>
+    </row>
+    <row r="41" spans="4:10" x14ac:dyDescent="0.5">
+      <c r="D41" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="45"/>
-      <c r="L11" s="17"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="C12" s="14"/>
-      <c r="D12" s="26" t="s">
+      <c r="E41" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" s="46"/>
+      <c r="J41" s="9"/>
+    </row>
+    <row r="42" spans="4:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D42" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="F42" s="44"/>
+      <c r="J42" s="12"/>
+    </row>
+    <row r="43" spans="4:10" x14ac:dyDescent="0.5">
+      <c r="J43" s="12"/>
+    </row>
+    <row r="44" spans="4:10" x14ac:dyDescent="0.5">
+      <c r="J44" s="9"/>
+    </row>
+    <row r="45" spans="4:10" x14ac:dyDescent="0.5">
+      <c r="J45" s="9"/>
+    </row>
+    <row r="46" spans="4:10" x14ac:dyDescent="0.5">
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+    </row>
+    <row r="47" spans="4:10" x14ac:dyDescent="0.5">
+      <c r="D47" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" s="40"/>
+    </row>
+    <row r="48" spans="4:10" x14ac:dyDescent="0.5">
+      <c r="D48" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48" s="34">
+        <v>5844</v>
+      </c>
+      <c r="F48" s="41"/>
+      <c r="J48" s="9"/>
+    </row>
+    <row r="49" spans="4:10" x14ac:dyDescent="0.5">
+      <c r="D49" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" s="33">
+        <v>1917</v>
+      </c>
+      <c r="F49" s="41"/>
+      <c r="J49" s="9"/>
+    </row>
+    <row r="50" spans="4:10" x14ac:dyDescent="0.5">
+      <c r="D50" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="E50" s="33">
+        <v>1925</v>
+      </c>
+      <c r="F50" s="27"/>
+      <c r="J50" s="9"/>
+    </row>
+    <row r="51" spans="4:10" x14ac:dyDescent="0.5">
+      <c r="D51" s="53"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="27"/>
+      <c r="J51" s="9"/>
+    </row>
+    <row r="52" spans="4:10" x14ac:dyDescent="0.5">
+      <c r="D52" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="E52" s="36">
+        <v>1</v>
+      </c>
+      <c r="F52" s="27"/>
+      <c r="J52" s="9"/>
+    </row>
+    <row r="53" spans="4:10" x14ac:dyDescent="0.5">
+      <c r="D53" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53" s="36">
+        <v>0</v>
+      </c>
+      <c r="F53" s="27"/>
+      <c r="J53" s="9"/>
+    </row>
+    <row r="54" spans="4:10" x14ac:dyDescent="0.5">
+      <c r="D54" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E54" s="36">
+        <v>0</v>
+      </c>
+      <c r="F54" s="27"/>
+      <c r="J54" s="9"/>
+    </row>
+    <row r="55" spans="4:10" x14ac:dyDescent="0.5">
+      <c r="D55" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="E55" s="36">
+        <v>1</v>
+      </c>
+      <c r="F55" s="27"/>
+      <c r="J55" s="9"/>
+    </row>
+    <row r="56" spans="4:10" x14ac:dyDescent="0.5">
+      <c r="D56" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="E56" s="36">
+        <v>0</v>
+      </c>
+      <c r="F56" s="27"/>
+      <c r="J56" s="9"/>
+    </row>
+    <row r="57" spans="4:10" x14ac:dyDescent="0.5">
+      <c r="D57" s="53"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="27"/>
+      <c r="J57" s="9"/>
+    </row>
+    <row r="58" spans="4:10" ht="26.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="D58" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="E58" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="F58" s="42"/>
+      <c r="J58" s="9"/>
+    </row>
+    <row r="59" spans="4:10" x14ac:dyDescent="0.5">
+      <c r="D59" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="E59" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="F59" s="46"/>
+      <c r="J59" s="9"/>
+    </row>
+    <row r="60" spans="4:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D60" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="E60" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="F60" s="44"/>
+      <c r="J60" s="9"/>
+    </row>
+    <row r="61" spans="4:10" x14ac:dyDescent="0.5">
+      <c r="J61" s="9"/>
+    </row>
+    <row r="62" spans="4:10" x14ac:dyDescent="0.5">
+      <c r="J62" s="9"/>
+    </row>
+    <row r="63" spans="4:10" x14ac:dyDescent="0.5">
+      <c r="J63" s="9"/>
+    </row>
+    <row r="64" spans="4:10" x14ac:dyDescent="0.5">
+      <c r="J64" s="9"/>
+    </row>
+    <row r="65" spans="4:11" x14ac:dyDescent="0.5">
+      <c r="D65" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="E65" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F65" s="40"/>
+      <c r="H65" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J65" s="9"/>
+    </row>
+    <row r="66" spans="4:11" x14ac:dyDescent="0.5">
+      <c r="D66" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="E66" s="34">
+        <v>10361</v>
+      </c>
+      <c r="F66" s="41"/>
+      <c r="H66" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J66" s="9"/>
+    </row>
+    <row r="67" spans="4:11" x14ac:dyDescent="0.5">
+      <c r="D67" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="E67" s="33">
+        <v>1884</v>
+      </c>
+      <c r="F67" s="41"/>
+      <c r="H67" s="7"/>
+      <c r="J67" s="9"/>
+    </row>
+    <row r="68" spans="4:11" x14ac:dyDescent="0.5">
+      <c r="D68" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="E68" s="33">
+        <v>1975</v>
+      </c>
+      <c r="F68" s="27"/>
+      <c r="H68" s="7">
+        <v>1884</v>
+      </c>
+      <c r="J68" s="9"/>
+    </row>
+    <row r="69" spans="4:11" x14ac:dyDescent="0.5">
+      <c r="D69" s="58"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="27"/>
+      <c r="H69" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J69" s="9"/>
+    </row>
+    <row r="70" spans="4:11" x14ac:dyDescent="0.5">
+      <c r="D70" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="E70" s="36">
+        <v>4</v>
+      </c>
+      <c r="F70" s="27"/>
+      <c r="H70" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J70" s="9"/>
+    </row>
+    <row r="71" spans="4:11" x14ac:dyDescent="0.5">
+      <c r="D71" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="E71" s="36">
+        <v>1</v>
+      </c>
+      <c r="F71" s="27"/>
+      <c r="H71" s="8">
+        <v>10361</v>
+      </c>
+      <c r="J71" s="9"/>
+    </row>
+    <row r="72" spans="4:11" x14ac:dyDescent="0.5">
+      <c r="D72" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="E72" s="36">
+        <v>0</v>
+      </c>
+      <c r="F72" s="27"/>
+      <c r="H72" s="7"/>
+      <c r="J72" s="47"/>
+      <c r="K72" s="47"/>
+    </row>
+    <row r="73" spans="4:11" x14ac:dyDescent="0.5">
+      <c r="D73" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="E73" s="36">
         <v>3</v>
       </c>
-      <c r="F12" s="45"/>
-      <c r="L12" s="17"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="B13" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="41">
-        <v>23</v>
-      </c>
-      <c r="F13" s="45"/>
-      <c r="L13" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="C14" s="13"/>
-      <c r="D14" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="41">
+      <c r="F73" s="27"/>
+      <c r="H73" s="7"/>
+      <c r="J73" s="9"/>
+    </row>
+    <row r="74" spans="4:11" x14ac:dyDescent="0.5">
+      <c r="D74" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="E74" s="36">
+        <v>1</v>
+      </c>
+      <c r="F74" s="27"/>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="4:11" x14ac:dyDescent="0.5">
+      <c r="D75" s="58"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="27"/>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="4:11" ht="26.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="D76" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="E76" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="F76" s="42"/>
+      <c r="H76" s="7">
+        <v>1975</v>
+      </c>
+      <c r="I76" t="s">
+        <v>3</v>
+      </c>
+      <c r="J76" s="9"/>
+      <c r="K76" s="7"/>
+    </row>
+    <row r="77" spans="4:11" x14ac:dyDescent="0.5">
+      <c r="D77" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="E77" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="F77" s="46"/>
+      <c r="H77" s="7"/>
+      <c r="I77" t="s">
+        <v>7</v>
+      </c>
+      <c r="J77" s="9">
+        <v>1925</v>
+      </c>
+      <c r="K77" s="7">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="78" spans="4:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D78" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E78" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="F78" s="44"/>
+      <c r="H78" s="7">
+        <v>1</v>
+      </c>
+      <c r="I78" t="s">
+        <v>8</v>
+      </c>
+      <c r="J78" s="9"/>
+      <c r="K78" s="7"/>
+    </row>
+    <row r="79" spans="4:11" x14ac:dyDescent="0.5">
+      <c r="H79" s="7">
+        <v>0</v>
+      </c>
+      <c r="I79" t="s">
+        <v>34</v>
+      </c>
+      <c r="J79" s="9">
+        <v>0</v>
+      </c>
+      <c r="K79" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="4:11" x14ac:dyDescent="0.5">
+      <c r="H80" s="7">
+        <v>4</v>
+      </c>
+      <c r="I80" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="45"/>
-      <c r="L14" s="17"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="B15" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="19">
+      <c r="J80" s="9">
+        <v>0</v>
+      </c>
+      <c r="K80" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="8:11" x14ac:dyDescent="0.5">
+      <c r="H81" s="7">
         <v>3</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="45"/>
-      <c r="L15" s="17"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A16" s="18" t="s">
+      <c r="I81" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="19">
-        <v>23</v>
-      </c>
-      <c r="C16" s="19">
-        <v>8</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="41">
-        <v>8</v>
-      </c>
-      <c r="F16" s="45"/>
-      <c r="L16" s="17"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A17" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="19">
-        <v>9</v>
-      </c>
-      <c r="C17" s="19">
+      <c r="J81" s="9">
+        <v>1</v>
+      </c>
+      <c r="K81" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="8:11" x14ac:dyDescent="0.5">
+      <c r="H82" s="7">
+        <v>1</v>
+      </c>
+      <c r="I82" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="43">
-        <v>11</v>
-      </c>
-      <c r="F17" s="46"/>
-      <c r="L17" s="17"/>
-    </row>
-    <row r="18" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="32"/>
-      <c r="L18" s="17"/>
-    </row>
-    <row r="19" spans="1:12" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="C19" s="13"/>
-      <c r="D19" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="38"/>
-      <c r="L19" s="17"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="C20" s="13"/>
-      <c r="D20" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="34"/>
-      <c r="L20" s="17"/>
-    </row>
-    <row r="21" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D21" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="36"/>
+      <c r="J82" s="9">
+        <v>1</v>
+      </c>
+      <c r="K82" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="8:11" x14ac:dyDescent="0.5">
+      <c r="H83" s="7"/>
+      <c r="I83" t="s">
+        <v>12</v>
+      </c>
+      <c r="J83" s="9">
+        <v>0</v>
+      </c>
+      <c r="K83" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="8:11" x14ac:dyDescent="0.5">
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" spans="8:11" x14ac:dyDescent="0.5">
+      <c r="H85" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86" spans="8:11" x14ac:dyDescent="0.5">
+      <c r="H86" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="8:11" x14ac:dyDescent="0.5">
+      <c r="H87" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="88" spans="8:11" x14ac:dyDescent="0.5">
+      <c r="H88" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="89" spans="8:11" x14ac:dyDescent="0.5">
+      <c r="H89" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="I89" s="56"/>
+    </row>
+    <row r="90" spans="8:11" x14ac:dyDescent="0.5">
+      <c r="H90" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
+  <mergeCells count="15">
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="7" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="7" scale="29" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -1764,16 +2625,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="29"/>
     </row>
     <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.45">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
@@ -1800,10 +2661,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.45">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="31"/>
     </row>
     <row r="7" spans="1:2" ht="21" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">

--- a/GLI_program/plot_working_folder/Tables_Excel_Scratch_Book.xlsx
+++ b/GLI_program/plot_working_folder/Tables_Excel_Scratch_Book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Desktop\Project\college_hockey\GLI_program\plot_working_folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1987E4-1AC6-4D67-805D-1A4C2C7EFAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CA8C36-4D3E-427A-B54B-F02A4D12F571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-1020" windowWidth="25440" windowHeight="15990" activeTab="1" xr2:uid="{F9862DA5-5AF3-4862-813A-07A8CFA6BCE2}"/>
+    <workbookView xWindow="3195" yWindow="345" windowWidth="18900" windowHeight="11505" activeTab="2" xr2:uid="{F9862DA5-5AF3-4862-813A-07A8CFA6BCE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -698,7 +698,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -773,6 +773,84 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -784,85 +862,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1776,7 +1775,7 @@
   </sheetPr>
   <dimension ref="A2:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B59" workbookViewId="0">
+    <sheetView topLeftCell="B35" workbookViewId="0">
       <selection activeCell="D65" sqref="D65:F78"/>
     </sheetView>
   </sheetViews>
@@ -1834,12 +1833,12 @@
       <c r="B9" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="32"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="21"/>
       <c r="B10" s="19"/>
-      <c r="F10" s="32"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="21"/>
@@ -1847,10 +1846,10 @@
       <c r="D11" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="40"/>
+      <c r="F11" s="34"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="21"/>
@@ -1858,10 +1857,10 @@
       <c r="D12" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="30">
         <v>49809</v>
       </c>
-      <c r="F12" s="41"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" s="21"/>
@@ -1869,10 +1868,10 @@
       <c r="D13" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="29">
         <v>1855</v>
       </c>
-      <c r="F13" s="41"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="14" t="s">
@@ -1884,7 +1883,7 @@
       <c r="D14" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="29">
         <v>1921</v>
       </c>
       <c r="F14" s="27"/>
@@ -1900,7 +1899,7 @@
       <c r="D15" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="29" t="s">
         <v>47</v>
       </c>
       <c r="F15" s="27"/>
@@ -1920,7 +1919,7 @@
       <c r="D17" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="31">
         <v>23</v>
       </c>
       <c r="F17" s="27"/>
@@ -1930,7 +1929,7 @@
       <c r="D18" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="31">
         <v>9</v>
       </c>
       <c r="F18" s="27"/>
@@ -1945,7 +1944,7 @@
       <c r="D19" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="31">
         <v>3</v>
       </c>
       <c r="F19" s="27"/>
@@ -1963,7 +1962,7 @@
       <c r="D20" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="31">
         <v>8</v>
       </c>
       <c r="F20" s="27"/>
@@ -1981,7 +1980,7 @@
       <c r="D21" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="31">
         <v>11</v>
       </c>
       <c r="F21" s="27"/>
@@ -1990,7 +1989,7 @@
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="22"/>
-      <c r="E22" s="37"/>
+      <c r="E22" s="32"/>
       <c r="F22" s="27"/>
     </row>
     <row r="23" spans="1:10" ht="26.25" x14ac:dyDescent="0.55000000000000004">
@@ -1998,158 +1997,158 @@
       <c r="D23" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="38" t="s">
+      <c r="E23" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="42"/>
+      <c r="F23" s="50"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.5">
       <c r="C24" s="9"/>
       <c r="D24" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="45" t="s">
+      <c r="E24" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="46"/>
+      <c r="F24" s="52"/>
     </row>
     <row r="25" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D25" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="43" t="s">
+      <c r="E25" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="44"/>
+      <c r="F25" s="54"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="D29" s="48" t="s">
+      <c r="D29" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="39" t="s">
+      <c r="E29" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="40"/>
+      <c r="F29" s="34"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="D30" s="49" t="s">
+      <c r="D30" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="34">
+      <c r="E30" s="30">
         <v>7034</v>
       </c>
-      <c r="F30" s="41"/>
+      <c r="F30" s="35"/>
       <c r="J30" s="9"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="D31" s="49" t="s">
+      <c r="D31" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="E31" s="33">
+      <c r="E31" s="29">
         <v>1885</v>
       </c>
-      <c r="F31" s="41"/>
+      <c r="F31" s="35"/>
       <c r="J31" s="9"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="D32" s="49" t="s">
+      <c r="D32" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="33">
+      <c r="E32" s="29">
         <v>1919</v>
       </c>
       <c r="F32" s="27"/>
       <c r="J32" s="9"/>
     </row>
     <row r="33" spans="4:10" x14ac:dyDescent="0.5">
-      <c r="D33" s="48"/>
+      <c r="D33" s="36"/>
       <c r="F33" s="27"/>
       <c r="J33" s="9"/>
     </row>
     <row r="34" spans="4:10" x14ac:dyDescent="0.5">
-      <c r="D34" s="49" t="s">
+      <c r="D34" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E34" s="31">
         <v>15</v>
       </c>
       <c r="F34" s="27"/>
       <c r="J34" s="9"/>
     </row>
     <row r="35" spans="4:10" x14ac:dyDescent="0.5">
-      <c r="D35" s="49" t="s">
+      <c r="D35" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="36">
+      <c r="E35" s="31">
         <v>10</v>
       </c>
       <c r="F35" s="27"/>
       <c r="J35" s="9"/>
     </row>
     <row r="36" spans="4:10" x14ac:dyDescent="0.5">
-      <c r="D36" s="49" t="s">
+      <c r="D36" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="E36" s="36">
+      <c r="E36" s="31">
         <v>3</v>
       </c>
       <c r="F36" s="27"/>
       <c r="J36" s="9"/>
     </row>
     <row r="37" spans="4:10" x14ac:dyDescent="0.5">
-      <c r="D37" s="49" t="s">
+      <c r="D37" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="36">
+      <c r="E37" s="31">
         <v>7</v>
       </c>
       <c r="F37" s="27"/>
       <c r="J37" s="9"/>
     </row>
     <row r="38" spans="4:10" x14ac:dyDescent="0.5">
-      <c r="D38" s="49" t="s">
+      <c r="D38" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="E38" s="36">
+      <c r="E38" s="31">
         <v>11</v>
       </c>
       <c r="F38" s="27"/>
       <c r="J38" s="9"/>
     </row>
     <row r="39" spans="4:10" x14ac:dyDescent="0.5">
-      <c r="D39" s="49"/>
-      <c r="E39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="32"/>
       <c r="F39" s="27"/>
       <c r="J39" s="9"/>
     </row>
     <row r="40" spans="4:10" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="D40" s="49" t="s">
+      <c r="D40" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="E40" s="38" t="s">
+      <c r="E40" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="F40" s="42"/>
+      <c r="F40" s="50"/>
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="4:10" x14ac:dyDescent="0.5">
-      <c r="D41" s="50" t="s">
+      <c r="D41" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="45" t="s">
+      <c r="E41" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="F41" s="46"/>
+      <c r="F41" s="52"/>
       <c r="J41" s="9"/>
     </row>
     <row r="42" spans="4:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D42" s="51" t="s">
+      <c r="D42" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="E42" s="43" t="s">
+      <c r="E42" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="F42" s="44"/>
+      <c r="F42" s="54"/>
       <c r="J42" s="12"/>
     </row>
     <row r="43" spans="4:10" x14ac:dyDescent="0.5">
@@ -2162,138 +2161,137 @@
       <c r="J45" s="9"/>
     </row>
     <row r="46" spans="4:10" x14ac:dyDescent="0.5">
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
     </row>
     <row r="47" spans="4:10" x14ac:dyDescent="0.5">
-      <c r="D47" s="52" t="s">
+      <c r="D47" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="E47" s="39" t="s">
+      <c r="E47" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="F47" s="40"/>
+      <c r="F47" s="34"/>
     </row>
     <row r="48" spans="4:10" x14ac:dyDescent="0.5">
-      <c r="D48" s="53" t="s">
+      <c r="D48" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="E48" s="34">
+      <c r="E48" s="30">
         <v>5844</v>
       </c>
-      <c r="F48" s="41"/>
+      <c r="F48" s="35"/>
       <c r="J48" s="9"/>
     </row>
     <row r="49" spans="4:10" x14ac:dyDescent="0.5">
-      <c r="D49" s="53" t="s">
+      <c r="D49" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="E49" s="33">
+      <c r="E49" s="29">
         <v>1917</v>
       </c>
-      <c r="F49" s="41"/>
+      <c r="F49" s="35"/>
       <c r="J49" s="9"/>
     </row>
     <row r="50" spans="4:10" x14ac:dyDescent="0.5">
-      <c r="D50" s="53" t="s">
+      <c r="D50" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="E50" s="33">
+      <c r="E50" s="29">
         <v>1925</v>
       </c>
       <c r="F50" s="27"/>
       <c r="J50" s="9"/>
     </row>
     <row r="51" spans="4:10" x14ac:dyDescent="0.5">
-      <c r="D51" s="53"/>
-      <c r="E51" s="35"/>
+      <c r="D51" s="41"/>
       <c r="F51" s="27"/>
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="4:10" x14ac:dyDescent="0.5">
-      <c r="D52" s="53" t="s">
+      <c r="D52" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="E52" s="36">
+      <c r="E52" s="31">
         <v>1</v>
       </c>
       <c r="F52" s="27"/>
       <c r="J52" s="9"/>
     </row>
     <row r="53" spans="4:10" x14ac:dyDescent="0.5">
-      <c r="D53" s="53" t="s">
+      <c r="D53" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="E53" s="36">
+      <c r="E53" s="31">
         <v>0</v>
       </c>
       <c r="F53" s="27"/>
       <c r="J53" s="9"/>
     </row>
     <row r="54" spans="4:10" x14ac:dyDescent="0.5">
-      <c r="D54" s="53" t="s">
+      <c r="D54" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="E54" s="36">
+      <c r="E54" s="31">
         <v>0</v>
       </c>
       <c r="F54" s="27"/>
       <c r="J54" s="9"/>
     </row>
     <row r="55" spans="4:10" x14ac:dyDescent="0.5">
-      <c r="D55" s="53" t="s">
+      <c r="D55" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="E55" s="36">
+      <c r="E55" s="31">
         <v>1</v>
       </c>
       <c r="F55" s="27"/>
       <c r="J55" s="9"/>
     </row>
     <row r="56" spans="4:10" x14ac:dyDescent="0.5">
-      <c r="D56" s="53" t="s">
+      <c r="D56" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="E56" s="36">
+      <c r="E56" s="31">
         <v>0</v>
       </c>
       <c r="F56" s="27"/>
       <c r="J56" s="9"/>
     </row>
     <row r="57" spans="4:10" x14ac:dyDescent="0.5">
-      <c r="D57" s="53"/>
-      <c r="E57" s="37"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="32"/>
       <c r="F57" s="27"/>
       <c r="J57" s="9"/>
     </row>
     <row r="58" spans="4:10" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="D58" s="53" t="s">
+      <c r="D58" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="E58" s="38" t="s">
+      <c r="E58" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="F58" s="42"/>
+      <c r="F58" s="50"/>
       <c r="J58" s="9"/>
     </row>
     <row r="59" spans="4:10" x14ac:dyDescent="0.5">
-      <c r="D59" s="54" t="s">
+      <c r="D59" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="E59" s="45" t="s">
+      <c r="E59" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="F59" s="46"/>
+      <c r="F59" s="52"/>
       <c r="J59" s="9"/>
     </row>
     <row r="60" spans="4:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D60" s="55" t="s">
+      <c r="D60" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="E60" s="43" t="s">
+      <c r="E60" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="F60" s="44"/>
+      <c r="F60" s="54"/>
       <c r="J60" s="9"/>
     </row>
     <row r="61" spans="4:10" x14ac:dyDescent="0.5">
@@ -2309,47 +2307,47 @@
       <c r="J64" s="9"/>
     </row>
     <row r="65" spans="4:11" x14ac:dyDescent="0.5">
-      <c r="D65" s="57" t="s">
+      <c r="D65" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="E65" s="39" t="s">
+      <c r="E65" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="F65" s="40"/>
+      <c r="F65" s="34"/>
       <c r="H65" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J65" s="9"/>
     </row>
     <row r="66" spans="4:11" x14ac:dyDescent="0.5">
-      <c r="D66" s="58" t="s">
+      <c r="D66" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="E66" s="34">
+      <c r="E66" s="30">
         <v>10361</v>
       </c>
-      <c r="F66" s="41"/>
+      <c r="F66" s="35"/>
       <c r="H66" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J66" s="9"/>
     </row>
     <row r="67" spans="4:11" x14ac:dyDescent="0.5">
-      <c r="D67" s="58" t="s">
+      <c r="D67" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="E67" s="33">
+      <c r="E67" s="29">
         <v>1884</v>
       </c>
-      <c r="F67" s="41"/>
+      <c r="F67" s="35"/>
       <c r="H67" s="7"/>
       <c r="J67" s="9"/>
     </row>
     <row r="68" spans="4:11" x14ac:dyDescent="0.5">
-      <c r="D68" s="58" t="s">
+      <c r="D68" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="E68" s="33">
+      <c r="E68" s="29">
         <v>1975</v>
       </c>
       <c r="F68" s="27"/>
@@ -2359,8 +2357,7 @@
       <c r="J68" s="9"/>
     </row>
     <row r="69" spans="4:11" x14ac:dyDescent="0.5">
-      <c r="D69" s="58"/>
-      <c r="E69" s="35"/>
+      <c r="D69" s="45"/>
       <c r="F69" s="27"/>
       <c r="H69" s="7" t="s">
         <v>54</v>
@@ -2368,10 +2365,10 @@
       <c r="J69" s="9"/>
     </row>
     <row r="70" spans="4:11" x14ac:dyDescent="0.5">
-      <c r="D70" s="58" t="s">
+      <c r="D70" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="E70" s="36">
+      <c r="E70" s="31">
         <v>4</v>
       </c>
       <c r="F70" s="27"/>
@@ -2381,10 +2378,10 @@
       <c r="J70" s="9"/>
     </row>
     <row r="71" spans="4:11" x14ac:dyDescent="0.5">
-      <c r="D71" s="58" t="s">
+      <c r="D71" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="E71" s="36">
+      <c r="E71" s="31">
         <v>1</v>
       </c>
       <c r="F71" s="27"/>
@@ -2394,22 +2391,22 @@
       <c r="J71" s="9"/>
     </row>
     <row r="72" spans="4:11" x14ac:dyDescent="0.5">
-      <c r="D72" s="58" t="s">
+      <c r="D72" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="E72" s="36">
+      <c r="E72" s="31">
         <v>0</v>
       </c>
       <c r="F72" s="27"/>
       <c r="H72" s="7"/>
-      <c r="J72" s="47"/>
-      <c r="K72" s="47"/>
+      <c r="J72" s="48"/>
+      <c r="K72" s="48"/>
     </row>
     <row r="73" spans="4:11" x14ac:dyDescent="0.5">
-      <c r="D73" s="58" t="s">
+      <c r="D73" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="E73" s="36">
+      <c r="E73" s="31">
         <v>3</v>
       </c>
       <c r="F73" s="27"/>
@@ -2417,29 +2414,29 @@
       <c r="J73" s="9"/>
     </row>
     <row r="74" spans="4:11" x14ac:dyDescent="0.5">
-      <c r="D74" s="58" t="s">
+      <c r="D74" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="E74" s="36">
+      <c r="E74" s="31">
         <v>1</v>
       </c>
       <c r="F74" s="27"/>
       <c r="H74" s="7"/>
     </row>
     <row r="75" spans="4:11" x14ac:dyDescent="0.5">
-      <c r="D75" s="58"/>
-      <c r="E75" s="37"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="32"/>
       <c r="F75" s="27"/>
       <c r="H75" s="7"/>
     </row>
     <row r="76" spans="4:11" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="D76" s="58" t="s">
+      <c r="D76" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="E76" s="38" t="s">
+      <c r="E76" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="F76" s="42"/>
+      <c r="F76" s="50"/>
       <c r="H76" s="7">
         <v>1975</v>
       </c>
@@ -2450,13 +2447,13 @@
       <c r="K76" s="7"/>
     </row>
     <row r="77" spans="4:11" x14ac:dyDescent="0.5">
-      <c r="D77" s="59" t="s">
+      <c r="D77" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="E77" s="45" t="s">
+      <c r="E77" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="F77" s="46"/>
+      <c r="F77" s="52"/>
       <c r="H77" s="7"/>
       <c r="I77" t="s">
         <v>7</v>
@@ -2469,13 +2466,13 @@
       </c>
     </row>
     <row r="78" spans="4:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D78" s="60" t="s">
+      <c r="D78" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="E78" s="43" t="s">
+      <c r="E78" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="F78" s="44"/>
+      <c r="F78" s="54"/>
       <c r="H78" s="7">
         <v>1</v>
       </c>
@@ -2577,10 +2574,10 @@
       </c>
     </row>
     <row r="89" spans="8:11" x14ac:dyDescent="0.5">
-      <c r="H89" s="56" t="s">
+      <c r="H89" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="I89" s="56"/>
+      <c r="I89" s="55"/>
     </row>
     <row r="90" spans="8:11" x14ac:dyDescent="0.5">
       <c r="H90" s="7" t="s">
@@ -2589,21 +2586,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
     <mergeCell ref="J72:K72"/>
     <mergeCell ref="E76:F76"/>
     <mergeCell ref="E77:F77"/>
     <mergeCell ref="E78:F78"/>
     <mergeCell ref="H89:I89"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="7" scale="29" orientation="portrait" r:id="rId1"/>
@@ -2613,10 +2610,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2AABE37-FEBE-45BD-844D-5AE9B4CAC3C2}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2625,10 +2625,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="57"/>
     </row>
     <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
@@ -2661,10 +2661,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.45">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="59"/>
     </row>
     <row r="7" spans="1:2" ht="21" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">

--- a/GLI_program/plot_working_folder/Tables_Excel_Scratch_Book.xlsx
+++ b/GLI_program/plot_working_folder/Tables_Excel_Scratch_Book.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Desktop\Project\college_hockey\GLI_program\plot_working_folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CA8C36-4D3E-427A-B54B-F02A4D12F571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129B8703-2B86-4CDA-93F1-B8043CA7650E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="345" windowWidth="18900" windowHeight="11505" activeTab="2" xr2:uid="{F9862DA5-5AF3-4862-813A-07A8CFA6BCE2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{F9862DA5-5AF3-4862-813A-07A8CFA6BCE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Coach_Roster_style" sheetId="3" r:id="rId2"/>
     <sheet name="Attendance" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="102">
   <si>
     <t>School Name</t>
   </si>
@@ -360,12 +361,24 @@
   <si>
     <t>32nd Year (492-592-113)</t>
   </si>
+  <si>
+    <t>Michigan State:</t>
+  </si>
+  <si>
+    <t>Ferris State:</t>
+  </si>
+  <si>
+    <t>Michigan Tech:</t>
+  </si>
+  <si>
+    <t>Alaska:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,8 +509,15 @@
       <color rgb="FFFCC917"/>
       <name val="Exo 2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -549,6 +569,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBA0C2F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4D4D4D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF23A5D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF369A85"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3C8DD0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,7 +742,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -827,27 +871,27 @@
     <xf numFmtId="0" fontId="20" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -863,6 +907,21 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -872,6 +931,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF3C8DD0"/>
+      <color rgb="FF369A85"/>
+      <color rgb="FFF23A5D"/>
+      <color rgb="FF4D4D4D"/>
       <color rgb="FFFCC917"/>
       <color rgb="FFBA0C2F"/>
       <color rgb="FFFFCD00"/>
@@ -1997,29 +2060,29 @@
       <c r="D23" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="49" t="s">
+      <c r="E23" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="50"/>
+      <c r="F23" s="49"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.5">
       <c r="C24" s="9"/>
       <c r="D24" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="51" t="s">
+      <c r="E24" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="52"/>
+      <c r="F24" s="51"/>
     </row>
     <row r="25" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D25" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="53" t="s">
+      <c r="E25" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="54"/>
+      <c r="F25" s="53"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.5">
       <c r="D29" s="36" t="s">
@@ -2125,30 +2188,30 @@
       <c r="D40" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="E40" s="49" t="s">
+      <c r="E40" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="F40" s="50"/>
+      <c r="F40" s="49"/>
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="4:10" x14ac:dyDescent="0.5">
       <c r="D41" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="51" t="s">
+      <c r="E41" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="F41" s="52"/>
+      <c r="F41" s="51"/>
       <c r="J41" s="9"/>
     </row>
     <row r="42" spans="4:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D42" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="E42" s="53" t="s">
+      <c r="E42" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="F42" s="54"/>
+      <c r="F42" s="53"/>
       <c r="J42" s="12"/>
     </row>
     <row r="43" spans="4:10" x14ac:dyDescent="0.5">
@@ -2161,8 +2224,8 @@
       <c r="J45" s="9"/>
     </row>
     <row r="46" spans="4:10" x14ac:dyDescent="0.5">
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
     </row>
     <row r="47" spans="4:10" x14ac:dyDescent="0.5">
       <c r="D47" s="40" t="s">
@@ -2268,30 +2331,30 @@
       <c r="D58" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="E58" s="49" t="s">
+      <c r="E58" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="F58" s="50"/>
+      <c r="F58" s="49"/>
       <c r="J58" s="9"/>
     </row>
     <row r="59" spans="4:10" x14ac:dyDescent="0.5">
       <c r="D59" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="E59" s="51" t="s">
+      <c r="E59" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="F59" s="52"/>
+      <c r="F59" s="51"/>
       <c r="J59" s="9"/>
     </row>
     <row r="60" spans="4:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D60" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="E60" s="53" t="s">
+      <c r="E60" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="F60" s="54"/>
+      <c r="F60" s="53"/>
       <c r="J60" s="9"/>
     </row>
     <row r="61" spans="4:10" x14ac:dyDescent="0.5">
@@ -2399,8 +2462,8 @@
       </c>
       <c r="F72" s="27"/>
       <c r="H72" s="7"/>
-      <c r="J72" s="48"/>
-      <c r="K72" s="48"/>
+      <c r="J72" s="54"/>
+      <c r="K72" s="54"/>
     </row>
     <row r="73" spans="4:11" x14ac:dyDescent="0.5">
       <c r="D73" s="45" t="s">
@@ -2433,10 +2496,10 @@
       <c r="D76" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="E76" s="49" t="s">
+      <c r="E76" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="F76" s="50"/>
+      <c r="F76" s="49"/>
       <c r="H76" s="7">
         <v>1975</v>
       </c>
@@ -2450,10 +2513,10 @@
       <c r="D77" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="E77" s="51" t="s">
+      <c r="E77" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="F77" s="52"/>
+      <c r="F77" s="51"/>
       <c r="H77" s="7"/>
       <c r="I77" t="s">
         <v>7</v>
@@ -2469,10 +2532,10 @@
       <c r="D78" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="E78" s="53" t="s">
+      <c r="E78" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="F78" s="54"/>
+      <c r="F78" s="53"/>
       <c r="H78" s="7">
         <v>1</v>
       </c>
@@ -2586,21 +2649,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="H89:I89"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="7" scale="29" orientation="portrait" r:id="rId1"/>
@@ -2615,8 +2678,8 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2698,4 +2761,69 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E873DEAF-4CB7-48EA-B779-20FF16A0809F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A5:R5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:R5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.85546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" customWidth="1"/>
+    <col min="7" max="7" width="3.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="11" max="11" width="3.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.85546875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" customWidth="1"/>
+    <col min="15" max="15" width="3.42578125" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" customWidth="1"/>
+    <col min="17" max="17" width="2.85546875" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="5.7109375" customWidth="1"/>
+    <col min="19" max="19" width="1.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:18" s="66" customFormat="1" ht="24" x14ac:dyDescent="0.5">
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="M5" s="63"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="65"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="69" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>